--- a/data/trans_camb/P75-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P75-Edad-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,87; -3,38</t>
+          <t>-15,06; -3,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,57; -6,4</t>
+          <t>-17,52; -5,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,13; -6,09</t>
+          <t>-14,47; -6,62</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-49,68; -12,99</t>
+          <t>-51,83; -16,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,83; -23,34</t>
+          <t>-53,81; -20,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-47,44; -23,64</t>
+          <t>-48,61; -25,04</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,4; -7,39</t>
+          <t>-16,64; -7,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,17; -6,66</t>
+          <t>-17,01; -7,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,69; -8,85</t>
+          <t>-15,29; -8,37</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-54,33; -28,96</t>
+          <t>-53,9; -26,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-52,45; -24,6</t>
+          <t>-52,38; -26,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,48; -31,93</t>
+          <t>-49,34; -30,06</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,27; -12,91</t>
+          <t>-22,2; -12,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,61; -11,64</t>
+          <t>-20,31; -11,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,25; -13,43</t>
+          <t>-20,17; -13,75</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,24; -45,71</t>
+          <t>-65,76; -44,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-61,4; -39,58</t>
+          <t>-60,24; -38,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-61,1; -46,12</t>
+          <t>-61,08; -46,64</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,44; -6,91</t>
+          <t>-16,82; -7,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,57; -6,69</t>
+          <t>-16,03; -6,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,47; -7,5</t>
+          <t>-14,63; -7,88</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,68; -29,87</t>
+          <t>-58,19; -31,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-54,65; -29,48</t>
+          <t>-55,18; -26,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-52,24; -31,77</t>
+          <t>-52,03; -33,1</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,85; -4,94</t>
+          <t>-14,88; -4,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-17,38; -6,47</t>
+          <t>-17,02; -6,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,52; -6,88</t>
+          <t>-14,42; -7,28</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-60,9; -22,89</t>
+          <t>-58,66; -21,46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-62,79; -29,75</t>
+          <t>-63,13; -30,42</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-56,98; -32,32</t>
+          <t>-57,12; -33,74</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-15,5; -5,56</t>
+          <t>-15,82; -6,05</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,67; -4,73</t>
+          <t>-12,75; -4,19</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-12,39; -6,22</t>
+          <t>-12,32; -6,51</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-59,69; -28,04</t>
+          <t>-59,87; -29,96</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-54,77; -24,81</t>
+          <t>-55,12; -22,34</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-53,01; -30,96</t>
+          <t>-53,33; -32,5</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-14,02; -10,25</t>
+          <t>-14,21; -10,18</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-14,0; -10,05</t>
+          <t>-13,94; -10,08</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-13,5; -10,76</t>
+          <t>-13,43; -10,7</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-51,45; -40,74</t>
+          <t>-51,48; -40,38</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-49,97; -38,87</t>
+          <t>-49,74; -38,89</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-49,19; -41,74</t>
+          <t>-49,01; -41,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P75-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P75-Edad-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,06; -3,87</t>
+          <t>-14,75; -3,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,52; -5,65</t>
+          <t>-17,46; -6,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,47; -6,62</t>
+          <t>-14,56; -6,56</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-51,83; -16,76</t>
+          <t>-49,9; -12,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,81; -20,77</t>
+          <t>-53,86; -23,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,61; -25,04</t>
+          <t>-48,76; -24,99</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,64; -7,08</t>
+          <t>-16,95; -7,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,01; -7,35</t>
+          <t>-17,06; -7,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,29; -8,37</t>
+          <t>-15,36; -8,21</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-53,9; -26,89</t>
+          <t>-54,17; -28,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-52,38; -26,38</t>
+          <t>-51,86; -26,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,34; -30,06</t>
+          <t>-49,22; -30,17</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,2; -12,91</t>
+          <t>-21,8; -12,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,31; -11,43</t>
+          <t>-20,84; -11,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,17; -13,75</t>
+          <t>-20,03; -13,39</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-65,76; -44,97</t>
+          <t>-65,38; -45,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-60,24; -38,56</t>
+          <t>-61,44; -40,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-61,08; -46,64</t>
+          <t>-60,11; -45,39</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,82; -7,36</t>
+          <t>-16,67; -7,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,03; -6,4</t>
+          <t>-16,13; -6,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,63; -7,88</t>
+          <t>-14,78; -7,7</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,19; -31,34</t>
+          <t>-58,38; -30,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-55,18; -26,74</t>
+          <t>-55,44; -27,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-52,03; -33,1</t>
+          <t>-53,47; -32,66</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-14,88; -4,23</t>
+          <t>-15,43; -4,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-17,02; -6,44</t>
+          <t>-16,64; -6,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,42; -7,28</t>
+          <t>-14,52; -7,21</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-58,66; -21,46</t>
+          <t>-59,3; -25,19</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-63,13; -30,42</t>
+          <t>-62,17; -29,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-57,12; -33,74</t>
+          <t>-56,98; -34,07</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-15,82; -6,05</t>
+          <t>-15,1; -5,37</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,75; -4,19</t>
+          <t>-12,71; -4,51</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-12,32; -6,51</t>
+          <t>-12,36; -6,4</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-59,87; -29,96</t>
+          <t>-59,37; -28,41</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-55,12; -22,34</t>
+          <t>-53,74; -22,39</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-53,33; -32,5</t>
+          <t>-53,01; -32,16</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-14,21; -10,18</t>
+          <t>-14,2; -10,2</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-13,94; -10,08</t>
+          <t>-13,93; -10,12</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-13,43; -10,7</t>
+          <t>-13,64; -10,86</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-51,48; -40,38</t>
+          <t>-51,37; -40,38</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-49,74; -38,89</t>
+          <t>-50,15; -39,43</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-49,01; -41,47</t>
+          <t>-49,55; -41,7</t>
         </is>
       </c>
     </row>
